--- a/13.12.2022/EXCEL_NEWSHEEET.xlsx
+++ b/13.12.2022/EXCEL_NEWSHEEET.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -839,4 +842,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>а_19</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>б_22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ц_24</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>